--- a/grupos/2BEM - Estadisticos 2020.xlsx
+++ b/grupos/2BEM - Estadisticos 2020.xlsx
@@ -3189,6 +3189,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3925,7 +3926,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4550,6 +4552,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/2BEM - Estadisticos 2020.xlsx
+++ b/grupos/2BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="150">
   <si>
     <t>Materia</t>
   </si>
@@ -218,39 +218,93 @@
     <t>ANASTACIO</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>BERNARDO</t>
+  </si>
+  <si>
+    <t>CITALAN</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>DIAZ</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MENDIZABAL</t>
+  </si>
+  <si>
     <t>NAJERA</t>
   </si>
   <si>
     <t>NUBE</t>
   </si>
   <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>TEOBAL</t>
   </si>
   <si>
     <t>TELLEZ</t>
   </si>
   <si>
+    <t>VALENTE</t>
+  </si>
+  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
     <t>CONCHE</t>
   </si>
   <si>
@@ -260,6 +314,21 @@
     <t>ROMERO</t>
   </si>
   <si>
+    <t>GARCÍA</t>
+  </si>
+  <si>
+    <t>CONCHOA</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
@@ -269,24 +338,36 @@
     <t>ARGUELLEZ</t>
   </si>
   <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
     <t>EVARISTO</t>
   </si>
   <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
     <t>ALEMAN</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
     <t>GUSTAVO</t>
   </si>
   <si>
@@ -296,6 +377,21 @@
     <t>HIRAM FABIAN</t>
   </si>
   <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
     <t>YAHIR</t>
   </si>
   <si>
@@ -305,15 +401,36 @@
     <t>CESAR</t>
   </si>
   <si>
+    <t>MARIA ASUNCION</t>
+  </si>
+  <si>
     <t>JOB ISAY</t>
   </si>
   <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>NOEL ALBERTO</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
     <t>ALDAIR ALAN</t>
   </si>
   <si>
     <t>JOSE EDUARDO</t>
   </si>
   <si>
+    <t>ALDER ALBERTO</t>
+  </si>
+  <si>
     <t>ELI ANTONIO</t>
   </si>
   <si>
@@ -323,148 +440,31 @@
     <t>CHRISTIAN YAIR</t>
   </si>
   <si>
+    <t>SERGIO MARIANO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>CESAR OMAR</t>
+  </si>
+  <si>
+    <t>ROSA ISELA</t>
+  </si>
+  <si>
     <t>DAVID YAEL</t>
   </si>
   <si>
     <t>BENY ALEXANDER</t>
   </si>
   <si>
+    <t>ABIUD</t>
+  </si>
+  <si>
     <t>GUILLERMO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>BERNARDO</t>
-  </si>
-  <si>
-    <t>CITALAN</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MENDIZABAL</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VALENTE</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>GARCÍA</t>
-  </si>
-  <si>
-    <t>CONCHOA</t>
-  </si>
-  <si>
-    <t>ROMANOS</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>MARIA ASUNCION</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>NOEL ALBERTO</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>ALDER ALBERTO</t>
-  </si>
-  <si>
-    <t>SERGIO MARIANO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>CESAR OMAR</t>
-  </si>
-  <si>
-    <t>ROSA ISELA</t>
-  </si>
-  <si>
-    <t>ABIUD</t>
   </si>
   <si>
     <t>ALEXANDER</t>
@@ -948,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -957,13 +957,13 @@
         <v>-1</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1007,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -1022,7 +1022,7 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -1081,7 +1081,7 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1116,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1125,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1140,7 +1140,7 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1193,13 +1193,13 @@
         <v>-1</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1252,13 +1252,13 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1311,13 +1311,13 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1361,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1370,13 +1370,13 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1429,13 +1429,13 @@
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1488,7 +1488,7 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>-1</v>
@@ -1715,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1724,13 +1724,13 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1774,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1783,13 +1783,13 @@
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>8</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1960,13 +1960,13 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2010,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2019,13 +2019,13 @@
         <v>-1</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2069,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2078,13 +2078,13 @@
         <v>-1</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L23">
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2187,7 +2187,7 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2202,7 +2202,7 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2246,7 +2246,7 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2261,7 +2261,7 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2364,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -2373,13 +2373,13 @@
         <v>-1</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2423,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -2432,13 +2432,13 @@
         <v>-1</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2482,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2491,13 +2491,13 @@
         <v>-1</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L30">
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2541,7 +2541,7 @@
         <v>10</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2550,13 +2550,13 @@
         <v>-1</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L31">
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2777,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2786,13 +2786,13 @@
         <v>-1</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -2827,7 +2827,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -2836,7 +2836,7 @@
         <v>9</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2845,13 +2845,13 @@
         <v>-1</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L36">
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -2895,7 +2895,7 @@
         <v>10</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -2904,13 +2904,13 @@
         <v>-1</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -2998,22 +2998,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>60</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>8.57</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3183,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3221,10 +3221,10 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -3235,196 +3235,196 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920040</v>
+        <v>20330051920039</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920042</v>
+        <v>20330051920039</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920050</v>
+        <v>20330051920039</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920050</v>
+        <v>20330051920040</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920050</v>
+        <v>20330051920040</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920050</v>
+        <v>20330051920040</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920050</v>
+        <v>20330051920040</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920365</v>
+        <v>20330051920042</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920052</v>
+        <v>20330051920042</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920052</v>
+        <v>20330051920042</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -3435,156 +3435,156 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920054</v>
+        <v>20330051920042</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920054</v>
+        <v>20330051920043</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920054</v>
+        <v>20330051920043</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920054</v>
+        <v>20330051920043</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920054</v>
+        <v>20330051920044</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920097</v>
+        <v>20330051920044</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920098</v>
+        <v>20330051920044</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920098</v>
+        <v>20330051920045</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -3595,216 +3595,216 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920366</v>
+        <v>20330051920045</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920366</v>
+        <v>20330051920045</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920367</v>
+        <v>20330051920046</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920367</v>
+        <v>20330051920046</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920100</v>
+        <v>20330051920046</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920100</v>
+        <v>20330051920048</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920100</v>
+        <v>20330051920048</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920100</v>
+        <v>20330051920048</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920100</v>
+        <v>20330051920050</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920108</v>
+        <v>20330051920050</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920108</v>
+        <v>20330051920050</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -3815,102 +3815,2284 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920108</v>
+        <v>20330051920050</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920108</v>
+        <v>20330051920050</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920108</v>
+        <v>20330051920050</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920109</v>
+        <v>20330051920051</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
+        <v>20330051920051</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>20330051920051</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>20330051920365</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>20330051920365</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>20330051920365</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>20330051920365</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>20330051920365</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>20330051920365</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>20330051920052</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>20330051920052</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>20330051920052</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>20330051920052</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>20330051920052</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>20330051920052</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>20330051920053</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>20330051920053</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>20330051920053</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>20330051920054</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>20330051920054</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>20330051920054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>20330051920054</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>20330051920054</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>20330051920054</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>20330051920055</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20330051920055</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>20330051920055</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>20330051920055</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>20330051920055</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>20330051920055</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>20330051920056</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>20330051920056</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>20330051920056</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>20330051920057</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>20330051920057</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>20330051920057</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>20330051920095</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>20330051920095</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>20330051920095</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>20330051920096</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>20330051920096</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>20330051920096</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>20330051920097</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>20330051920097</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>20330051920097</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20330051920097</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>20330051920097</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>20330051920098</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>20330051920098</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>20330051920098</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>20330051920098</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>20330051920098</v>
+      </c>
+      <c r="B86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>20330051920098</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>20330051920099</v>
+      </c>
+      <c r="B88" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>20330051920099</v>
+      </c>
+      <c r="B89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>20330051920099</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>20330051920099</v>
+      </c>
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>20330051920099</v>
+      </c>
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>20330051920099</v>
+      </c>
+      <c r="B93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>20330051920366</v>
+      </c>
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>20330051920366</v>
+      </c>
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>20330051920366</v>
+      </c>
+      <c r="B96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>20330051920366</v>
+      </c>
+      <c r="B97" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>20330051920367</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>20330051920367</v>
+      </c>
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20330051920367</v>
+      </c>
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20330051920367</v>
+      </c>
+      <c r="B101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20330051920100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>20330051920100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>20330051920100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>20330051920100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" t="s">
+        <v>139</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>20330051920100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" t="s">
+        <v>139</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>20330051920100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" t="s">
+        <v>139</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>20330051920101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>20330051920101</v>
+      </c>
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" t="s">
+        <v>140</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>20330051920101</v>
+      </c>
+      <c r="B110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20330051920102</v>
+      </c>
+      <c r="B111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20330051920102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20330051920102</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" t="s">
+        <v>141</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20330051920104</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" t="s">
+        <v>142</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20330051920104</v>
+      </c>
+      <c r="B115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>20330051920104</v>
+      </c>
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20330051920105</v>
+      </c>
+      <c r="B117" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" t="s">
+        <v>79</v>
+      </c>
+      <c r="D117" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20330051920105</v>
+      </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20330051920105</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" t="s">
+        <v>79</v>
+      </c>
+      <c r="D119" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20330051920107</v>
+      </c>
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20330051920107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>20330051920107</v>
+      </c>
+      <c r="B122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>20330051920107</v>
+      </c>
+      <c r="B123" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>20330051920107</v>
+      </c>
+      <c r="B124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>20330051920107</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" t="s">
+        <v>144</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>20330051920108</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" t="s">
+        <v>75</v>
+      </c>
+      <c r="D126" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>20330051920108</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>20330051920108</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" t="s">
+        <v>75</v>
+      </c>
+      <c r="D128" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>20330051920108</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" t="s">
+        <v>75</v>
+      </c>
+      <c r="D129" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>20330051920108</v>
+      </c>
+      <c r="B130" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>20330051920108</v>
+      </c>
+      <c r="B131" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" t="s">
+        <v>75</v>
+      </c>
+      <c r="D131" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>20330051920109</v>
+      </c>
+      <c r="B132" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>20330051920109</v>
+      </c>
+      <c r="B133" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" t="s">
+        <v>101</v>
+      </c>
+      <c r="D133" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>20330051920109</v>
+      </c>
+      <c r="B134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>20330051920109</v>
+      </c>
+      <c r="B135" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135" t="s">
+        <v>101</v>
+      </c>
+      <c r="D135" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>20330051920109</v>
+      </c>
+      <c r="B136" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136" t="s">
+        <v>101</v>
+      </c>
+      <c r="D136" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>20330051920109</v>
+      </c>
+      <c r="B137" t="s">
+        <v>91</v>
+      </c>
+      <c r="C137" t="s">
+        <v>101</v>
+      </c>
+      <c r="D137" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>20330051920111</v>
+      </c>
+      <c r="B138" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" t="s">
+        <v>113</v>
+      </c>
+      <c r="D138" t="s">
+        <v>147</v>
+      </c>
+      <c r="E138" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>20330051920111</v>
+      </c>
+      <c r="B139" t="s">
+        <v>92</v>
+      </c>
+      <c r="C139" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>20330051920111</v>
+      </c>
+      <c r="B140" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" t="s">
+        <v>113</v>
+      </c>
+      <c r="D140" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
         <v>20330051920112</v>
       </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
+      <c r="B141" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" t="s">
+        <v>114</v>
+      </c>
+      <c r="D141" t="s">
+        <v>148</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>20330051920112</v>
+      </c>
+      <c r="B142" t="s">
+        <v>93</v>
+      </c>
+      <c r="C142" t="s">
+        <v>114</v>
+      </c>
+      <c r="D142" t="s">
+        <v>148</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>20330051920112</v>
+      </c>
+      <c r="B143" t="s">
+        <v>93</v>
+      </c>
+      <c r="C143" t="s">
+        <v>114</v>
+      </c>
+      <c r="D143" t="s">
+        <v>148</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>20330051920113</v>
+      </c>
+      <c r="B144" t="s">
+        <v>94</v>
+      </c>
+      <c r="C144" t="s">
+        <v>115</v>
+      </c>
+      <c r="D144" t="s">
+        <v>149</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>20330051920113</v>
+      </c>
+      <c r="B145" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" t="s">
+        <v>149</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>20330051920113</v>
+      </c>
+      <c r="B146" t="s">
+        <v>94</v>
+      </c>
+      <c r="C146" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146" t="s">
+        <v>149</v>
+      </c>
+      <c r="E146" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3952,13 +6134,13 @@
         <v>20330051920050</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -3969,13 +6151,13 @@
         <v>20330051920054</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -3986,13 +6168,13 @@
         <v>20330051920100</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -4003,13 +6185,13 @@
         <v>20330051920108</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -4020,13 +6202,13 @@
         <v>20330051920052</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4037,13 +6219,13 @@
         <v>20330051920098</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4054,13 +6236,13 @@
         <v>20330051920366</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4071,13 +6253,13 @@
         <v>20330051920367</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4091,10 +6273,10 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4102,16 +6284,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920040</v>
+        <v>20330051920365</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4119,16 +6301,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920042</v>
+        <v>20330051920097</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4136,16 +6318,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920365</v>
+        <v>20330051920109</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4153,67 +6335,67 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920097</v>
+        <v>20330051920040</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920109</v>
+        <v>20330051920042</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920112</v>
+        <v>20330051920043</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920043</v>
+        <v>20330051920044</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4221,16 +6403,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920044</v>
+        <v>20330051920045</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4238,16 +6420,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920045</v>
+        <v>20330051920046</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4255,16 +6437,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920046</v>
+        <v>20330051920048</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4272,16 +6454,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920048</v>
+        <v>20330051920051</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4289,16 +6471,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920051</v>
+        <v>20330051920053</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4306,16 +6488,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920053</v>
+        <v>20330051920055</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4323,16 +6505,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920055</v>
+        <v>20330051920056</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4340,16 +6522,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920056</v>
+        <v>20330051920057</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4357,16 +6539,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920057</v>
+        <v>20330051920095</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4374,16 +6556,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920095</v>
+        <v>20330051920096</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4391,16 +6573,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920096</v>
+        <v>20330051920099</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4408,13 +6587,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920099</v>
+        <v>20330051920101</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4422,16 +6604,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920101</v>
+        <v>20330051920102</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4439,16 +6621,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920102</v>
+        <v>20330051920104</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4456,16 +6638,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920104</v>
+        <v>20330051920105</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4473,16 +6655,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920105</v>
+        <v>20330051920107</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4490,13 +6672,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920107</v>
+        <v>20330051920111</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
         <v>147</v>
@@ -4507,13 +6689,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920111</v>
+        <v>20330051920112</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
         <v>148</v>
@@ -4527,10 +6709,10 @@
         <v>20330051920113</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
         <v>149</v>
@@ -4546,7 +6728,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4579,259 +6761,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920052</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920052</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920098</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920098</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920039</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920040</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920042</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920365</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920097</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/2BEM - Estadisticos 2020.xlsx
+++ b/grupos/2BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="150">
   <si>
     <t>Materia</t>
   </si>
@@ -182,19 +182,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
-    <t>García Sánchez Magda Bexabe</t>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>Aurioles Maldonado Luis Gustavo</t>
   </si>
   <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>Aurioles Maldonado Luis Gustavo</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
     <t>NC</t>
@@ -951,10 +951,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1010,10 +1010,10 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -1069,10 +1069,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -1131,7 +1131,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>-1</v>
@@ -1187,10 +1187,10 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1246,10 +1246,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1305,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1364,10 +1364,10 @@
         <v>10</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1423,10 +1423,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -1479,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1494,7 +1494,7 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1523,7 +1523,7 @@
         <v>-1</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1544,7 +1544,7 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1603,7 +1603,7 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -1656,13 +1656,13 @@
         <v>10</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>-1</v>
@@ -1671,7 +1671,7 @@
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1718,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K17">
         <v>10</v>
@@ -1777,10 +1777,10 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>-1</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1839,7 +1839,7 @@
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K19">
         <v>-1</v>
@@ -1898,7 +1898,7 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K20">
         <v>-1</v>
@@ -1954,10 +1954,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2013,10 +2013,10 @@
         <v>9</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2072,10 +2072,10 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2134,7 +2134,7 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -2193,7 +2193,7 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K25">
         <v>-1</v>
@@ -2252,7 +2252,7 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K26">
         <v>-1</v>
@@ -2311,7 +2311,7 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <v>-1</v>
@@ -2367,10 +2367,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K28">
         <v>6</v>
@@ -2426,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K29">
         <v>7</v>
@@ -2485,10 +2485,10 @@
         <v>9</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K30">
         <v>7</v>
@@ -2544,10 +2544,10 @@
         <v>10</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>8</v>
@@ -2600,13 +2600,13 @@
         <v>10</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -2615,7 +2615,7 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2659,13 +2659,13 @@
         <v>7</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I33">
         <v>-1</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K33">
         <v>-1</v>
@@ -2674,7 +2674,7 @@
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2724,7 +2724,7 @@
         <v>-1</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>-1</v>
@@ -2780,10 +2780,10 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -2839,10 +2839,10 @@
         <v>10</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K36">
         <v>7</v>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -2995,30 +2995,27 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.57</v>
-      </c>
-      <c r="H2">
-        <v>6.8</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J2">
-        <v>31.43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3027,30 +3024,30 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>74.29000000000001</v>
+        <v>51.43</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>25.71</v>
+        <v>45.71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -3059,25 +3056,25 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>85.70999999999999</v>
+        <v>62.86</v>
       </c>
       <c r="G4">
-        <v>14.29</v>
+        <v>31.43</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3091,25 +3088,25 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>88.56999999999999</v>
+        <v>77.14</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>11.43</v>
       </c>
       <c r="H5">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>11.43</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3123,30 +3120,30 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>88.56999999999999</v>
+        <v>77.14</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>11.43</v>
       </c>
       <c r="H6">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>11.43</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -3155,25 +3152,25 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>88.56999999999999</v>
+        <v>77.14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>22.86</v>
       </c>
       <c r="H7">
         <v>7.3</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>11.43</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3180,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3227,7 +3224,7 @@
         <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3247,7 +3244,7 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -3255,79 +3252,79 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920039</v>
+        <v>20330051920040</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920039</v>
+        <v>20330051920040</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920040</v>
+        <v>20330051920042</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920040</v>
+        <v>20330051920042</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -3335,19 +3332,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920040</v>
+        <v>20330051920042</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -3355,79 +3352,79 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920040</v>
+        <v>20330051920043</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920042</v>
+        <v>20330051920044</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920042</v>
+        <v>20330051920045</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920042</v>
+        <v>20330051920046</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -3435,419 +3432,419 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920042</v>
+        <v>20330051920048</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920043</v>
+        <v>20330051920050</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920043</v>
+        <v>20330051920050</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920043</v>
+        <v>20330051920050</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920044</v>
+        <v>20330051920050</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920044</v>
+        <v>20330051920050</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920044</v>
+        <v>20330051920051</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920045</v>
+        <v>20330051920365</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920045</v>
+        <v>20330051920365</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920045</v>
+        <v>20330051920365</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920046</v>
+        <v>20330051920365</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920046</v>
+        <v>20330051920365</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920046</v>
+        <v>20330051920052</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920048</v>
+        <v>20330051920052</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920048</v>
+        <v>20330051920052</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920048</v>
+        <v>20330051920053</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920050</v>
+        <v>20330051920054</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920050</v>
+        <v>20330051920054</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920050</v>
+        <v>20330051920054</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920050</v>
+        <v>20330051920054</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920050</v>
+        <v>20330051920054</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
         <v>56</v>
@@ -3855,19 +3852,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920050</v>
+        <v>20330051920055</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
         <v>55</v>
@@ -3875,159 +3872,159 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920051</v>
+        <v>20330051920055</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920051</v>
+        <v>20330051920055</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920051</v>
+        <v>20330051920055</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920365</v>
+        <v>20330051920055</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920365</v>
+        <v>20330051920056</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920365</v>
+        <v>20330051920057</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920365</v>
+        <v>20330051920095</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920365</v>
+        <v>20330051920096</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
         <v>54</v>
@@ -4035,96 +4032,96 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920365</v>
+        <v>20330051920097</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920052</v>
+        <v>20330051920098</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920052</v>
+        <v>20330051920098</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920052</v>
+        <v>20330051920098</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920052</v>
+        <v>20330051920098</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -4135,59 +4132,53 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920052</v>
+        <v>20330051920098</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920052</v>
+        <v>20330051920099</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920053</v>
+        <v>20330051920099</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
         <v>55</v>
@@ -4195,19 +4186,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920053</v>
+        <v>20330051920099</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
         <v>56</v>
@@ -4215,179 +4203,173 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920053</v>
+        <v>20330051920099</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920054</v>
+        <v>20330051920099</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920054</v>
+        <v>20330051920366</v>
       </c>
       <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" t="s">
-        <v>105</v>
-      </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920054</v>
+        <v>20330051920366</v>
       </c>
       <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
         <v>76</v>
       </c>
-      <c r="C55" t="s">
-        <v>105</v>
-      </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920054</v>
+        <v>20330051920366</v>
       </c>
       <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
         <v>76</v>
       </c>
-      <c r="C56" t="s">
-        <v>105</v>
-      </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920054</v>
+        <v>20330051920367</v>
       </c>
       <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
         <v>76</v>
       </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
       <c r="D57" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920054</v>
+        <v>20330051920367</v>
       </c>
       <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
         <v>76</v>
       </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920055</v>
+        <v>20330051920367</v>
       </c>
       <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
         <v>76</v>
       </c>
-      <c r="C59" t="s">
-        <v>74</v>
-      </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920055</v>
+        <v>20330051920100</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>57</v>
@@ -4395,239 +4377,239 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920055</v>
+        <v>20330051920100</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920055</v>
+        <v>20330051920100</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920055</v>
+        <v>20330051920100</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920055</v>
+        <v>20330051920100</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920056</v>
+        <v>20330051920101</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920056</v>
+        <v>20330051920102</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920056</v>
+        <v>20330051920104</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920057</v>
+        <v>20330051920105</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920057</v>
+        <v>20330051920107</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920057</v>
+        <v>20330051920107</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920095</v>
+        <v>20330051920108</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920095</v>
+        <v>20330051920108</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
         <v>56</v>
@@ -4635,39 +4617,39 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920095</v>
+        <v>20330051920108</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920096</v>
+        <v>20330051920108</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="s">
         <v>55</v>
@@ -4675,1424 +4657,142 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>20330051920096</v>
+        <v>20330051920108</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>20330051920096</v>
+        <v>20330051920109</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D76" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>20330051920097</v>
+        <v>20330051920109</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>20330051920097</v>
+        <v>20330051920109</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20330051920097</v>
+        <v>20330051920111</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>20330051920097</v>
+        <v>20330051920112</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20330051920097</v>
+        <v>20330051920113</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920098</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" t="s">
-        <v>135</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920098</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920098</v>
-      </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" t="s">
-        <v>107</v>
-      </c>
-      <c r="D84" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920098</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>107</v>
-      </c>
-      <c r="D85" t="s">
-        <v>135</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920098</v>
-      </c>
-      <c r="B86" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" t="s">
-        <v>107</v>
-      </c>
-      <c r="D86" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920098</v>
-      </c>
-      <c r="B87" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" t="s">
-        <v>107</v>
-      </c>
-      <c r="D87" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920099</v>
-      </c>
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" t="s">
-        <v>136</v>
-      </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920099</v>
-      </c>
-      <c r="B89" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920099</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920099</v>
-      </c>
-      <c r="B91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920099</v>
-      </c>
-      <c r="B92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920099</v>
-      </c>
-      <c r="B93" t="s">
-        <v>82</v>
-      </c>
-      <c r="D93" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920366</v>
-      </c>
-      <c r="B94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" t="s">
-        <v>137</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920366</v>
-      </c>
-      <c r="B95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E95" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920366</v>
-      </c>
-      <c r="B96" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" t="s">
-        <v>137</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920366</v>
-      </c>
-      <c r="B97" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" t="s">
-        <v>76</v>
-      </c>
-      <c r="D97" t="s">
-        <v>137</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920367</v>
-      </c>
-      <c r="B98" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" t="s">
-        <v>76</v>
-      </c>
-      <c r="D98" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920367</v>
-      </c>
-      <c r="B99" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" t="s">
-        <v>76</v>
-      </c>
-      <c r="D99" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920367</v>
-      </c>
-      <c r="B100" t="s">
-        <v>83</v>
-      </c>
-      <c r="C100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D100" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920367</v>
-      </c>
-      <c r="B101" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" t="s">
-        <v>76</v>
-      </c>
-      <c r="D101" t="s">
-        <v>138</v>
-      </c>
-      <c r="E101" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" t="s">
-        <v>110</v>
-      </c>
-      <c r="D102" t="s">
-        <v>139</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920100</v>
-      </c>
-      <c r="B103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" t="s">
-        <v>110</v>
-      </c>
-      <c r="D103" t="s">
-        <v>139</v>
-      </c>
-      <c r="E103" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920100</v>
-      </c>
-      <c r="B104" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" t="s">
-        <v>110</v>
-      </c>
-      <c r="D104" t="s">
-        <v>139</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920100</v>
-      </c>
-      <c r="B105" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" t="s">
-        <v>110</v>
-      </c>
-      <c r="D105" t="s">
-        <v>139</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920100</v>
-      </c>
-      <c r="B106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" t="s">
-        <v>110</v>
-      </c>
-      <c r="D106" t="s">
-        <v>139</v>
-      </c>
-      <c r="E106" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920100</v>
-      </c>
-      <c r="B107" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107" t="s">
-        <v>139</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920101</v>
-      </c>
-      <c r="B108" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920101</v>
-      </c>
-      <c r="B109" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" t="s">
-        <v>140</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920101</v>
-      </c>
-      <c r="B110" t="s">
-        <v>85</v>
-      </c>
-      <c r="C110" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920102</v>
-      </c>
-      <c r="B111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C111" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" t="s">
-        <v>141</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920102</v>
-      </c>
-      <c r="B112" t="s">
-        <v>86</v>
-      </c>
-      <c r="C112" t="s">
-        <v>112</v>
-      </c>
-      <c r="D112" t="s">
-        <v>141</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920102</v>
-      </c>
-      <c r="B113" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" t="s">
-        <v>141</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920104</v>
-      </c>
-      <c r="B114" t="s">
-        <v>87</v>
-      </c>
-      <c r="C114" t="s">
-        <v>81</v>
-      </c>
-      <c r="D114" t="s">
-        <v>142</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920104</v>
-      </c>
-      <c r="B115" t="s">
-        <v>87</v>
-      </c>
-      <c r="C115" t="s">
-        <v>81</v>
-      </c>
-      <c r="D115" t="s">
-        <v>142</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920104</v>
-      </c>
-      <c r="B116" t="s">
-        <v>87</v>
-      </c>
-      <c r="C116" t="s">
-        <v>81</v>
-      </c>
-      <c r="D116" t="s">
-        <v>142</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920105</v>
-      </c>
-      <c r="B117" t="s">
-        <v>88</v>
-      </c>
-      <c r="C117" t="s">
-        <v>79</v>
-      </c>
-      <c r="D117" t="s">
-        <v>143</v>
-      </c>
-      <c r="E117" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920105</v>
-      </c>
-      <c r="B118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" t="s">
-        <v>79</v>
-      </c>
-      <c r="D118" t="s">
-        <v>143</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920105</v>
-      </c>
-      <c r="B119" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" t="s">
-        <v>79</v>
-      </c>
-      <c r="D119" t="s">
-        <v>143</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920107</v>
-      </c>
-      <c r="B120" t="s">
-        <v>89</v>
-      </c>
-      <c r="C120" t="s">
-        <v>89</v>
-      </c>
-      <c r="D120" t="s">
-        <v>144</v>
-      </c>
-      <c r="E120" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920107</v>
-      </c>
-      <c r="B121" t="s">
-        <v>89</v>
-      </c>
-      <c r="C121" t="s">
-        <v>89</v>
-      </c>
-      <c r="D121" t="s">
-        <v>144</v>
-      </c>
-      <c r="E121" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920107</v>
-      </c>
-      <c r="B122" t="s">
-        <v>89</v>
-      </c>
-      <c r="C122" t="s">
-        <v>89</v>
-      </c>
-      <c r="D122" t="s">
-        <v>144</v>
-      </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920107</v>
-      </c>
-      <c r="B123" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" t="s">
-        <v>89</v>
-      </c>
-      <c r="D123" t="s">
-        <v>144</v>
-      </c>
-      <c r="E123" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920107</v>
-      </c>
-      <c r="B124" t="s">
-        <v>89</v>
-      </c>
-      <c r="C124" t="s">
-        <v>89</v>
-      </c>
-      <c r="D124" t="s">
-        <v>144</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920107</v>
-      </c>
-      <c r="B125" t="s">
-        <v>89</v>
-      </c>
-      <c r="C125" t="s">
-        <v>89</v>
-      </c>
-      <c r="D125" t="s">
-        <v>144</v>
-      </c>
-      <c r="E125" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920108</v>
-      </c>
-      <c r="B126" t="s">
-        <v>90</v>
-      </c>
-      <c r="C126" t="s">
-        <v>75</v>
-      </c>
-      <c r="D126" t="s">
-        <v>145</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920108</v>
-      </c>
-      <c r="B127" t="s">
-        <v>90</v>
-      </c>
-      <c r="C127" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" t="s">
-        <v>145</v>
-      </c>
-      <c r="E127" t="s">
-        <v>7</v>
-      </c>
-      <c r="F127" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920108</v>
-      </c>
-      <c r="B128" t="s">
-        <v>90</v>
-      </c>
-      <c r="C128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" t="s">
-        <v>145</v>
-      </c>
-      <c r="E128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920108</v>
-      </c>
-      <c r="B129" t="s">
-        <v>90</v>
-      </c>
-      <c r="C129" t="s">
-        <v>75</v>
-      </c>
-      <c r="D129" t="s">
-        <v>145</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920108</v>
-      </c>
-      <c r="B130" t="s">
-        <v>90</v>
-      </c>
-      <c r="C130" t="s">
-        <v>75</v>
-      </c>
-      <c r="D130" t="s">
-        <v>145</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920108</v>
-      </c>
-      <c r="B131" t="s">
-        <v>90</v>
-      </c>
-      <c r="C131" t="s">
-        <v>75</v>
-      </c>
-      <c r="D131" t="s">
-        <v>145</v>
-      </c>
-      <c r="E131" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920109</v>
-      </c>
-      <c r="B132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C132" t="s">
-        <v>101</v>
-      </c>
-      <c r="D132" t="s">
-        <v>146</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920109</v>
-      </c>
-      <c r="B133" t="s">
-        <v>91</v>
-      </c>
-      <c r="C133" t="s">
-        <v>101</v>
-      </c>
-      <c r="D133" t="s">
-        <v>146</v>
-      </c>
-      <c r="E133" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920109</v>
-      </c>
-      <c r="B134" t="s">
-        <v>91</v>
-      </c>
-      <c r="C134" t="s">
-        <v>101</v>
-      </c>
-      <c r="D134" t="s">
-        <v>146</v>
-      </c>
-      <c r="E134" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920109</v>
-      </c>
-      <c r="B135" t="s">
-        <v>91</v>
-      </c>
-      <c r="C135" t="s">
-        <v>101</v>
-      </c>
-      <c r="D135" t="s">
-        <v>146</v>
-      </c>
-      <c r="E135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920109</v>
-      </c>
-      <c r="B136" t="s">
-        <v>91</v>
-      </c>
-      <c r="C136" t="s">
-        <v>101</v>
-      </c>
-      <c r="D136" t="s">
-        <v>146</v>
-      </c>
-      <c r="E136" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920109</v>
-      </c>
-      <c r="B137" t="s">
-        <v>91</v>
-      </c>
-      <c r="C137" t="s">
-        <v>101</v>
-      </c>
-      <c r="D137" t="s">
-        <v>146</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920111</v>
-      </c>
-      <c r="B138" t="s">
-        <v>92</v>
-      </c>
-      <c r="C138" t="s">
-        <v>113</v>
-      </c>
-      <c r="D138" t="s">
-        <v>147</v>
-      </c>
-      <c r="E138" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920111</v>
-      </c>
-      <c r="B139" t="s">
-        <v>92</v>
-      </c>
-      <c r="C139" t="s">
-        <v>113</v>
-      </c>
-      <c r="D139" t="s">
-        <v>147</v>
-      </c>
-      <c r="E139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920111</v>
-      </c>
-      <c r="B140" t="s">
-        <v>92</v>
-      </c>
-      <c r="C140" t="s">
-        <v>113</v>
-      </c>
-      <c r="D140" t="s">
-        <v>147</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920112</v>
-      </c>
-      <c r="B141" t="s">
-        <v>93</v>
-      </c>
-      <c r="C141" t="s">
-        <v>114</v>
-      </c>
-      <c r="D141" t="s">
-        <v>148</v>
-      </c>
-      <c r="E141" t="s">
-        <v>6</v>
-      </c>
-      <c r="F141" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920112</v>
-      </c>
-      <c r="B142" t="s">
-        <v>93</v>
-      </c>
-      <c r="C142" t="s">
-        <v>114</v>
-      </c>
-      <c r="D142" t="s">
-        <v>148</v>
-      </c>
-      <c r="E142" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920112</v>
-      </c>
-      <c r="B143" t="s">
-        <v>93</v>
-      </c>
-      <c r="C143" t="s">
-        <v>114</v>
-      </c>
-      <c r="D143" t="s">
-        <v>148</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920113</v>
-      </c>
-      <c r="B144" t="s">
-        <v>94</v>
-      </c>
-      <c r="C144" t="s">
-        <v>115</v>
-      </c>
-      <c r="D144" t="s">
-        <v>149</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920113</v>
-      </c>
-      <c r="B145" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" t="s">
-        <v>115</v>
-      </c>
-      <c r="D145" t="s">
-        <v>149</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920113</v>
-      </c>
-      <c r="B146" t="s">
-        <v>94</v>
-      </c>
-      <c r="C146" t="s">
-        <v>115</v>
-      </c>
-      <c r="D146" t="s">
-        <v>149</v>
-      </c>
-      <c r="E146" t="s">
-        <v>5</v>
-      </c>
-      <c r="F146" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6148,16 +4848,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920054</v>
+        <v>20330051920365</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -6165,16 +4865,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920100</v>
+        <v>20330051920054</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -6182,16 +4882,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920108</v>
+        <v>20330051920055</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -6199,475 +4899,475 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920052</v>
+        <v>20330051920098</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920098</v>
+        <v>20330051920099</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920366</v>
+        <v>20330051920100</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920367</v>
+        <v>20330051920108</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920039</v>
+        <v>20330051920042</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920365</v>
+        <v>20330051920052</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920097</v>
+        <v>20330051920366</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920109</v>
+        <v>20330051920367</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920040</v>
+        <v>20330051920109</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920042</v>
+        <v>20330051920039</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920043</v>
+        <v>20330051920040</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920044</v>
+        <v>20330051920107</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920045</v>
+        <v>20330051920043</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920046</v>
+        <v>20330051920044</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920048</v>
+        <v>20330051920045</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920051</v>
+        <v>20330051920046</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
         <v>122</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920053</v>
+        <v>20330051920048</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920055</v>
+        <v>20330051920051</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920056</v>
+        <v>20330051920053</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920057</v>
+        <v>20330051920056</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920095</v>
+        <v>20330051920057</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920096</v>
+        <v>20330051920095</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920099</v>
+        <v>20330051920096</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920101</v>
+        <v>20330051920097</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920102</v>
+        <v>20330051920101</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920104</v>
+        <v>20330051920102</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920105</v>
+        <v>20330051920104</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920107</v>
+        <v>20330051920105</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6684,7 +5384,7 @@
         <v>147</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6701,7 +5401,7 @@
         <v>148</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6718,7 +5418,7 @@
         <v>149</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6728,7 +5428,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6758,7 +5458,605 @@
         <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920039</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920039</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920040</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920040</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920097</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920097</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920043</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920044</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920045</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920046</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920048</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920051</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920053</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920056</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920057</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920095</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920096</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20330051920101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20330051920102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20330051920104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>20330051920105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>20330051920111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>20330051920113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2BEM - Estadisticos 2020.xlsx
+++ b/grupos/2BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="150">
   <si>
     <t>Materia</t>
   </si>
@@ -182,12 +182,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
     <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
@@ -218,6 +218,135 @@
     <t>ANASTACIO</t>
   </si>
   <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MENDIZABAL</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEOBAL</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>ARGUELLEZ</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>ALEMAN</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>FRANCISCO ALAN</t>
+  </si>
+  <si>
+    <t>HIRAM FABIAN</t>
+  </si>
+  <si>
+    <t>YAHIR</t>
+  </si>
+  <si>
+    <t>BRUNO AZAEL</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>JOB ISAY</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>JOSE EDUARDO</t>
+  </si>
+  <si>
+    <t>ALDER ALBERTO</t>
+  </si>
+  <si>
+    <t>ELI ANTONIO</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>CHRISTIAN YAIR</t>
+  </si>
+  <si>
+    <t>ROSA ISELA</t>
+  </si>
+  <si>
+    <t>DAVID YAEL</t>
+  </si>
+  <si>
+    <t>BENY ALEXANDER</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -233,24 +362,9 @@
     <t>COLOHUA</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>GOMEZ</t>
   </si>
   <si>
@@ -260,21 +374,6 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MENDIZABAL</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
     <t>ORTIZ</t>
   </si>
   <si>
@@ -287,33 +386,12 @@
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEOBAL</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
     <t>VALENTE</t>
   </si>
   <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>CONCHE</t>
-  </si>
-  <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>GARCÍA</t>
   </si>
   <si>
@@ -323,36 +401,15 @@
     <t>ROMANOS</t>
   </si>
   <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
     <t>MARROQUIN</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>ARGUELLEZ</t>
-  </si>
-  <si>
     <t>HERRERA</t>
   </si>
   <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
     <t>MARCELINO</t>
   </si>
   <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>ALEMAN</t>
-  </si>
-  <si>
     <t>ROSETE</t>
   </si>
   <si>
@@ -362,21 +419,9 @@
     <t>GAMEZ</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>FRANCISCO ALAN</t>
-  </si>
-  <si>
-    <t>HIRAM FABIAN</t>
-  </si>
-  <si>
     <t>RAUL</t>
   </si>
   <si>
@@ -392,24 +437,9 @@
     <t>DAVID</t>
   </si>
   <si>
-    <t>YAHIR</t>
-  </si>
-  <si>
-    <t>BRUNO AZAEL</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
     <t>MARIA ASUNCION</t>
   </si>
   <si>
-    <t>JOB ISAY</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
     <t>ROBERTO</t>
   </si>
   <si>
@@ -422,24 +452,6 @@
     <t>ADRIAN</t>
   </si>
   <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
-    <t>JOSE EDUARDO</t>
-  </si>
-  <si>
-    <t>ALDER ALBERTO</t>
-  </si>
-  <si>
-    <t>ELI ANTONIO</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>CHRISTIAN YAIR</t>
-  </si>
-  <si>
     <t>SERGIO MARIANO</t>
   </si>
   <si>
@@ -452,19 +464,7 @@
     <t>CESAR OMAR</t>
   </si>
   <si>
-    <t>ROSA ISELA</t>
-  </si>
-  <si>
-    <t>DAVID YAEL</t>
-  </si>
-  <si>
-    <t>BENY ALEXANDER</t>
-  </si>
-  <si>
     <t>ABIUD</t>
-  </si>
-  <si>
-    <t>GUILLERMO</t>
   </si>
   <si>
     <t>ALEXANDER</t>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -1019,7 +1019,7 @@
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>8</v>
@@ -1078,7 +1078,7 @@
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -1255,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M9">
         <v>10</v>
@@ -1314,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1609,7 +1609,7 @@
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
         <v>-1</v>
@@ -1727,7 +1727,7 @@
         <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <v>10</v>
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M18">
         <v>10</v>
@@ -1963,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M21">
         <v>10</v>
@@ -2022,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>10</v>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -2376,7 +2376,7 @@
         <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M28">
         <v>10</v>
@@ -2435,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>10</v>
@@ -2494,7 +2494,7 @@
         <v>7</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M30">
         <v>9</v>
@@ -2553,7 +2553,7 @@
         <v>8</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M31">
         <v>10</v>
@@ -2789,7 +2789,7 @@
         <v>6</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>10</v>
@@ -2907,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M37">
         <v>10</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -2995,27 +2995,30 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>51.43</v>
       </c>
       <c r="G2">
-        <v>74.29000000000001</v>
+        <v>17.14</v>
+      </c>
+      <c r="H2">
+        <v>7.3</v>
       </c>
       <c r="I2">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>45.71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3024,25 +3027,25 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>51.43</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>17.14</v>
+        <v>14.29</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>45.71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3180,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3218,13 +3221,13 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3232,39 +3235,39 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920039</v>
+        <v>20330051920040</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920040</v>
+        <v>20330051920042</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -3272,19 +3275,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920040</v>
+        <v>20330051920042</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -3298,73 +3301,73 @@
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920042</v>
+        <v>20330051920050</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920042</v>
+        <v>20330051920050</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920043</v>
+        <v>20330051920050</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -3372,416 +3375,416 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920044</v>
+        <v>20330051920050</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920045</v>
+        <v>20330051920050</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920046</v>
+        <v>20330051920365</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920048</v>
+        <v>20330051920365</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920050</v>
+        <v>20330051920365</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920050</v>
+        <v>20330051920365</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920050</v>
+        <v>20330051920052</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920050</v>
+        <v>20330051920052</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920050</v>
+        <v>20330051920052</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920051</v>
+        <v>20330051920054</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920365</v>
+        <v>20330051920054</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920365</v>
+        <v>20330051920054</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920365</v>
+        <v>20330051920054</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920365</v>
+        <v>20330051920054</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920365</v>
+        <v>20330051920055</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920052</v>
+        <v>20330051920055</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920052</v>
+        <v>20330051920055</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920052</v>
+        <v>20330051920055</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920053</v>
+        <v>20330051920055</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920054</v>
+        <v>20330051920097</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920054</v>
+        <v>20330051920098</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -3792,79 +3795,79 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920054</v>
+        <v>20330051920098</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920054</v>
+        <v>20330051920098</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920054</v>
+        <v>20330051920098</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920055</v>
+        <v>20330051920098</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
         <v>55</v>
@@ -3872,139 +3875,127 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920055</v>
+        <v>20330051920099</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920055</v>
+        <v>20330051920099</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920055</v>
+        <v>20330051920099</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920055</v>
+        <v>20330051920099</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920056</v>
+        <v>20330051920366</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920057</v>
+        <v>20330051920366</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920095</v>
+        <v>20330051920366</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
         <v>54</v>
@@ -4012,99 +4003,99 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920096</v>
+        <v>20330051920367</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920097</v>
+        <v>20330051920367</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920098</v>
+        <v>20330051920367</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920098</v>
+        <v>20330051920100</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920098</v>
+        <v>20330051920100</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
@@ -4112,16 +4103,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920098</v>
+        <v>20330051920100</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -4132,36 +4123,39 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920098</v>
+        <v>20330051920100</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920099</v>
+        <v>20330051920100</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>57</v>
@@ -4169,64 +4163,76 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920099</v>
+        <v>20330051920107</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920099</v>
+        <v>20330051920107</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920099</v>
+        <v>20330051920108</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920099</v>
+        <v>20330051920108</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -4237,119 +4243,119 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920366</v>
+        <v>20330051920108</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920366</v>
+        <v>20330051920108</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920366</v>
+        <v>20330051920108</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920367</v>
+        <v>20330051920109</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920367</v>
+        <v>20330051920109</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920367</v>
+        <v>20330051920109</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
@@ -4357,442 +4363,22 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920100</v>
+        <v>20330051920112</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920100</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920100</v>
-      </c>
-      <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920100</v>
-      </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920100</v>
-      </c>
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920101</v>
-      </c>
-      <c r="B65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920102</v>
-      </c>
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920104</v>
-      </c>
-      <c r="B67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920105</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" t="s">
-        <v>143</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920107</v>
-      </c>
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920107</v>
-      </c>
-      <c r="B70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" t="s">
-        <v>144</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920108</v>
-      </c>
-      <c r="B71" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920108</v>
-      </c>
-      <c r="B72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920108</v>
-      </c>
-      <c r="B73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920108</v>
-      </c>
-      <c r="B74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920109</v>
-      </c>
-      <c r="B76" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920109</v>
-      </c>
-      <c r="B77" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920109</v>
-      </c>
-      <c r="B78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" t="s">
-        <v>146</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920111</v>
-      </c>
-      <c r="B79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" t="s">
-        <v>147</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920112</v>
-      </c>
-      <c r="B80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" t="s">
-        <v>148</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920113</v>
-      </c>
-      <c r="B81" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" t="s">
-        <v>149</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4834,13 +4420,13 @@
         <v>20330051920050</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -4848,16 +4434,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920365</v>
+        <v>20330051920054</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -4865,16 +4451,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920054</v>
+        <v>20330051920055</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -4882,16 +4468,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920055</v>
+        <v>20330051920098</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -4899,16 +4485,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920098</v>
+        <v>20330051920100</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4916,13 +4502,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920099</v>
+        <v>20330051920108</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -4930,36 +4519,33 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920100</v>
+        <v>20330051920365</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920108</v>
+        <v>20330051920099</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4970,10 +4556,10 @@
         <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -4984,13 +4570,13 @@
         <v>20330051920052</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5001,13 +4587,13 @@
         <v>20330051920366</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -5018,13 +4604,13 @@
         <v>20330051920367</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -5035,13 +4621,13 @@
         <v>20330051920109</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -5049,16 +4635,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920039</v>
+        <v>20330051920107</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5066,50 +4652,50 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920040</v>
+        <v>20330051920039</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920107</v>
+        <v>20330051920040</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920043</v>
+        <v>20330051920097</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5117,16 +4703,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920044</v>
+        <v>20330051920112</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5134,274 +4720,274 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920045</v>
+        <v>20330051920043</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920046</v>
+        <v>20330051920044</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920048</v>
+        <v>20330051920045</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920051</v>
+        <v>20330051920046</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920053</v>
+        <v>20330051920048</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920056</v>
+        <v>20330051920051</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920057</v>
+        <v>20330051920053</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920095</v>
+        <v>20330051920056</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920096</v>
+        <v>20330051920057</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920097</v>
+        <v>20330051920095</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920101</v>
+        <v>20330051920096</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920102</v>
+        <v>20330051920101</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920104</v>
+        <v>20330051920102</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920105</v>
+        <v>20330051920104</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920111</v>
+        <v>20330051920105</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
         <v>147</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920112</v>
+        <v>20330051920111</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
         <v>148</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5409,16 +4995,16 @@
         <v>20330051920113</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
         <v>149</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5428,7 +5014,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5463,45 +5049,45 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920039</v>
+        <v>20330051920097</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920039</v>
+        <v>20330051920097</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5509,22 +5095,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920040</v>
+        <v>20330051920107</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5532,22 +5118,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920040</v>
+        <v>20330051920107</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5555,42 +5141,42 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920097</v>
+        <v>20330051920039</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920097</v>
+        <v>20330051920040</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -5601,461 +5187,24 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920107</v>
+        <v>20330051920112</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920043</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920044</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920045</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920046</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920048</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920051</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920053</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920056</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920057</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920095</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920096</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920111</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920112</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/2BEM - Estadisticos 2020.xlsx
+++ b/grupos/2BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="150">
   <si>
     <t>Materia</t>
   </si>
@@ -182,12 +182,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
-    <t>García Sánchez Magda Bexabe</t>
-  </si>
-  <si>
     <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
@@ -212,214 +212,214 @@
     <t>ALVAREZ</t>
   </si>
   <si>
+    <t>ANASTACIO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MENDIZABAL</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEOBAL</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>ARGUELLEZ</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>ALEMAN</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>HIRAM FABIAN</t>
+  </si>
+  <si>
+    <t>YAHIR</t>
+  </si>
+  <si>
+    <t>BRUNO AZAEL</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>JOB ISAY</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>JOSE EDUARDO</t>
+  </si>
+  <si>
+    <t>ALDER ALBERTO</t>
+  </si>
+  <si>
+    <t>ELI ANTONIO</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>CHRISTIAN YAIR</t>
+  </si>
+  <si>
+    <t>ROSA ISELA</t>
+  </si>
+  <si>
+    <t>DAVID YAEL</t>
+  </si>
+  <si>
+    <t>BENY ALEXANDER</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
     <t>AMADOR</t>
   </si>
   <si>
-    <t>ANASTACIO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MENDIZABAL</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEOBAL</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>CONCHE</t>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>BERNARDO</t>
+  </si>
+  <si>
+    <t>CITALAN</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>VALENTE</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
   </si>
   <si>
     <t>PORRAS</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>ARGUELLEZ</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>ALEMAN</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
+    <t>GARCÍA</t>
+  </si>
+  <si>
+    <t>CONCHOA</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
   </si>
   <si>
     <t>FRANCISCO ALAN</t>
-  </si>
-  <si>
-    <t>HIRAM FABIAN</t>
-  </si>
-  <si>
-    <t>YAHIR</t>
-  </si>
-  <si>
-    <t>BRUNO AZAEL</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>JOB ISAY</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
-    <t>JOSE EDUARDO</t>
-  </si>
-  <si>
-    <t>ALDER ALBERTO</t>
-  </si>
-  <si>
-    <t>ELI ANTONIO</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>CHRISTIAN YAIR</t>
-  </si>
-  <si>
-    <t>ROSA ISELA</t>
-  </si>
-  <si>
-    <t>DAVID YAEL</t>
-  </si>
-  <si>
-    <t>BENY ALEXANDER</t>
-  </si>
-  <si>
-    <t>GUILLERMO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>BERNARDO</t>
-  </si>
-  <si>
-    <t>CITALAN</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>VALENTE</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>GARCÍA</t>
-  </si>
-  <si>
-    <t>CONCHOA</t>
-  </si>
-  <si>
-    <t>ROMANOS</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
   </si>
   <si>
     <t>RAUL</t>
@@ -998,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -2609,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -2995,30 +2995,30 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>51.43</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>17.14</v>
+        <v>14.29</v>
       </c>
       <c r="H2">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>45.71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3030,22 +3030,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>60</v>
       </c>
       <c r="G3">
-        <v>14.29</v>
+        <v>11.43</v>
       </c>
       <c r="H3">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3183,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3221,33 +3221,33 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920040</v>
+        <v>20330051920042</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -3258,16 +3258,16 @@
         <v>20330051920042</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -3278,39 +3278,39 @@
         <v>20330051920042</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920042</v>
+        <v>20330051920050</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3318,19 +3318,19 @@
         <v>20330051920050</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3338,19 +3338,19 @@
         <v>20330051920050</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3358,19 +3358,19 @@
         <v>20330051920050</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3378,33 +3378,33 @@
         <v>20330051920050</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920050</v>
+        <v>20330051920365</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -3418,13 +3418,13 @@
         <v>20330051920365</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -3438,13 +3438,13 @@
         <v>20330051920365</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -3458,39 +3458,39 @@
         <v>20330051920365</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920365</v>
+        <v>20330051920052</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3498,13 +3498,13 @@
         <v>20330051920052</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -3518,39 +3518,39 @@
         <v>20330051920052</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920052</v>
+        <v>20330051920054</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3558,16 +3558,16 @@
         <v>20330051920054</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>57</v>
@@ -3578,19 +3578,19 @@
         <v>20330051920054</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3598,19 +3598,19 @@
         <v>20330051920054</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3618,39 +3618,39 @@
         <v>20330051920054</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920054</v>
+        <v>20330051920055</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3658,19 +3658,19 @@
         <v>20330051920055</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3678,19 +3678,19 @@
         <v>20330051920055</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3698,13 +3698,13 @@
         <v>20330051920055</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -3718,59 +3718,59 @@
         <v>20330051920055</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920055</v>
+        <v>20330051920097</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920097</v>
+        <v>20330051920098</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3778,19 +3778,19 @@
         <v>20330051920098</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3798,19 +3798,19 @@
         <v>20330051920098</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3818,19 +3818,19 @@
         <v>20330051920098</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3838,39 +3838,36 @@
         <v>20330051920098</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920098</v>
+        <v>20330051920099</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3878,13 +3875,13 @@
         <v>20330051920099</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>57</v>
@@ -3895,50 +3892,56 @@
         <v>20330051920099</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920099</v>
+        <v>20330051920366</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920099</v>
+        <v>20330051920366</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
       </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3946,33 +3949,33 @@
         <v>20330051920366</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920366</v>
+        <v>20330051920367</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -3983,19 +3986,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920366</v>
+        <v>20330051920367</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
         <v>54</v>
@@ -4006,59 +4009,59 @@
         <v>20330051920367</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920367</v>
+        <v>20330051920100</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920367</v>
+        <v>20330051920100</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4066,19 +4069,19 @@
         <v>20330051920100</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4086,19 +4089,19 @@
         <v>20330051920100</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4106,16 +4109,16 @@
         <v>20330051920100</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>57</v>
@@ -4123,82 +4126,82 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920100</v>
+        <v>20330051920107</v>
       </c>
       <c r="B48" t="s">
         <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920100</v>
+        <v>20330051920108</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920107</v>
+        <v>20330051920108</v>
       </c>
       <c r="B50" t="s">
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920107</v>
+        <v>20330051920108</v>
       </c>
       <c r="B51" t="s">
         <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4206,19 +4209,19 @@
         <v>20330051920108</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4226,36 +4229,36 @@
         <v>20330051920108</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920108</v>
+        <v>20330051920109</v>
       </c>
       <c r="B54" t="s">
         <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
         <v>55</v>
@@ -4263,19 +4266,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920108</v>
+        <v>20330051920109</v>
       </c>
       <c r="B55" t="s">
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
         <v>54</v>
@@ -4283,102 +4286,42 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920108</v>
+        <v>20330051920109</v>
       </c>
       <c r="B56" t="s">
         <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920109</v>
+        <v>20330051920112</v>
       </c>
       <c r="B57" t="s">
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920109</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920109</v>
-      </c>
-      <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920112</v>
-      </c>
-      <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4420,13 +4363,13 @@
         <v>20330051920050</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -4437,13 +4380,13 @@
         <v>20330051920054</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -4454,13 +4397,13 @@
         <v>20330051920055</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -4471,13 +4414,13 @@
         <v>20330051920098</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -4488,13 +4431,13 @@
         <v>20330051920100</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4505,13 +4448,13 @@
         <v>20330051920108</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -4522,13 +4465,13 @@
         <v>20330051920365</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -4536,24 +4479,27 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920099</v>
+        <v>20330051920042</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920042</v>
+        <v>20330051920052</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
@@ -4567,16 +4513,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920052</v>
+        <v>20330051920099</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -4587,13 +4530,13 @@
         <v>20330051920366</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4604,13 +4547,13 @@
         <v>20330051920367</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4621,13 +4564,13 @@
         <v>20330051920109</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -4635,33 +4578,33 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920107</v>
+        <v>20330051920039</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920039</v>
+        <v>20330051920097</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4669,16 +4612,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920040</v>
+        <v>20330051920107</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4686,16 +4629,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920097</v>
+        <v>20330051920112</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4703,19 +4646,19 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920112</v>
+        <v>20330051920040</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4723,10 +4666,10 @@
         <v>20330051920043</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
         <v>134</v>
@@ -4740,10 +4683,10 @@
         <v>20330051920044</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
         <v>135</v>
@@ -4757,10 +4700,10 @@
         <v>20330051920045</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
         <v>136</v>
@@ -4774,10 +4717,10 @@
         <v>20330051920046</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
         <v>137</v>
@@ -4791,10 +4734,10 @@
         <v>20330051920048</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>138</v>
@@ -4808,10 +4751,10 @@
         <v>20330051920051</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>137</v>
@@ -4825,10 +4768,10 @@
         <v>20330051920053</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
         <v>139</v>
@@ -4842,10 +4785,10 @@
         <v>20330051920056</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
         <v>140</v>
@@ -4859,10 +4802,10 @@
         <v>20330051920057</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
         <v>141</v>
@@ -4876,10 +4819,10 @@
         <v>20330051920095</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
         <v>142</v>
@@ -4893,10 +4836,10 @@
         <v>20330051920096</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>143</v>
@@ -4910,10 +4853,10 @@
         <v>20330051920101</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
         <v>144</v>
@@ -4927,10 +4870,10 @@
         <v>20330051920102</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
         <v>145</v>
@@ -4944,10 +4887,10 @@
         <v>20330051920104</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>146</v>
@@ -4961,10 +4904,10 @@
         <v>20330051920105</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>147</v>
@@ -4978,10 +4921,10 @@
         <v>20330051920111</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
         <v>148</v>
@@ -4995,10 +4938,10 @@
         <v>20330051920113</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
         <v>149</v>
@@ -5014,7 +4957,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5052,19 +4995,19 @@
         <v>20330051920097</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5075,19 +5018,19 @@
         <v>20330051920097</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5095,22 +5038,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920107</v>
+        <v>20330051920039</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5121,19 +5064,19 @@
         <v>20330051920107</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5141,70 +5084,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920039</v>
+        <v>20330051920112</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
       </c>
       <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920040</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8">
         <v>-1</v>
       </c>
     </row>
